--- a/3.勤怠管理アプリ/05_内部仕様書/テーブル定義書/テーブル定義書(〇〇テーブル).xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/テーブル定義書/テーブル定義書(〇〇テーブル).xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KPB-036\Desktop\java研修\演習2\要件定義書\1.ショッピングサイト\05_内部仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\worktime\3.勤怠管理アプリ\05_内部仕様書\テーブル定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2614E61-2452-471C-87E3-8E10F6A42A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{CCF76CFB-D2A0-4814-B888-2440D70E4E7F}"/>
+    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
-    <sheet name="テーブル名" sheetId="2" r:id="rId2"/>
+    <sheet name="社員テーブル" sheetId="2" r:id="rId2"/>
+    <sheet name="申請テーブル" sheetId="3" r:id="rId3"/>
+    <sheet name="勤怠テーブル" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">テーブル名!$A$1:$K$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">勤怠テーブル!$A$1:$K$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">社員テーブル!$A$1:$K$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">申請テーブル!$A$1:$K$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$E$38</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -174,12 +177,150 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>商品識別ID</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単価</t>
+    <rPh sb="0" eb="2">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>apply_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請番号</t>
+    <rPh sb="0" eb="4">
+      <t>シンセイバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員番号</t>
+    <rPh sb="0" eb="4">
+      <t>シャインバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員識別番号</t>
+    <rPh sb="0" eb="4">
+      <t>シャインシキベツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請情報番号</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>シキベツ</t>
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>active</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請状態</t>
+    <rPh sb="0" eb="4">
+      <t>シンセイジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請の有無</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>year_month</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年月日</t>
+    <rPh sb="0" eb="2">
+      <t>ネンゲツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年月日</t>
+    <rPh sb="0" eb="3">
+      <t>ネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Attendance_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠番号</t>
+    <rPh sb="0" eb="4">
+      <t>キンタイバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠識別ID</t>
+    <rPh sb="0" eb="4">
+      <t>キンタイシキベツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -188,19 +329,55 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>単価</t>
-    <rPh sb="0" eb="2">
-      <t>タンカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品の価格</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
+    <t>apply_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務日</t>
+    <rPh sb="0" eb="3">
+      <t>キンムビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務した日</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>work_start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出勤時刻</t>
+    <rPh sb="0" eb="4">
+      <t>シュッキンジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務を開始した時刻</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>カカク</t>
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジコク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -209,49 +386,351 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>goods_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>create_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録日</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
+    <t>work_finish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退勤時刻</t>
+    <rPh sb="0" eb="2">
+      <t>タイキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退勤した時刻</t>
+    <rPh sb="0" eb="2">
+      <t>タイキン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>over_start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残業開始時刻</t>
+    <rPh sb="0" eb="2">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残業を開始した時刻</t>
+    <rPh sb="0" eb="2">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>over_finish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩残業終了時刻</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>シュウリョウジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残業を終了した時刻</t>
+    <rPh sb="0" eb="2">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当部署</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務形態</t>
+    <rPh sb="0" eb="4">
+      <t>キンムケイタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考欄</t>
+    <rPh sb="0" eb="3">
+      <t>ビコウラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contents</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>department</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当の部署、支店など</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブショ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在宅か出勤</t>
+    <rPh sb="0" eb="2">
+      <t>ザイタク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュッキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>但し書き</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>商品を登録した日</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
+      <t>ガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請日</t>
+    <rPh sb="0" eb="3">
+      <t>シンセイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請した日</t>
+    <rPh sb="0" eb="2">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rest1_start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rest2_start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rest1_finish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rest2_finish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rest3_start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rest3_finish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩1開始時刻</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DATE</t>
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩1終了時刻</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シュウリョウジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩1を開始した時刻</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩1を終了した時刻</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩2開始時刻</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩2終了時刻</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シュウリョウジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩3開始時刻</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩3終了時刻</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シュウリョウジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩2を開始した時刻</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩2を終了した時刻</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩3を開始した時刻</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩3を終了した時刻</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジコク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,6 +901,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -430,15 +918,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -482,9 +961,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>401955</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>1905</xdr:rowOff>
+          <xdr:colOff>409575</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>211455</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -499,7 +978,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1054"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1064"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -514,7 +993,147 @@
           <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="1905"/>
-              <a:ext cx="6115050" cy="685800"/>
+              <a:ext cx="6115050" cy="676275"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>1905</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>409575</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>211455</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="図 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABCC05D8-B0F5-4F23-9DD9-038185BD9BE1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s2058"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="1905"/>
+              <a:ext cx="6115050" cy="676275"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>1905</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>409575</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>211455</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="図 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABCC05D8-B0F5-4F23-9DD9-038185BD9BE1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s3082"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="1905"/>
+              <a:ext cx="6115050" cy="676275"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -835,21 +1454,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B729E61E-B949-41F9-8A89-4E73CECF64D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -866,7 +1485,7 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
@@ -877,264 +1496,294 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="13"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="13"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="13"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1142,36 +1791,6 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1180,25 +1799,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C20FC5-7AE7-48A7-98CD-9081647BBD6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.5" customWidth="1"/>
-    <col min="2" max="4" width="3.8984375" customWidth="1"/>
-    <col min="5" max="5" width="12.69921875" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" customWidth="1"/>
-    <col min="7" max="8" width="9.296875" customWidth="1"/>
-    <col min="9" max="9" width="10.19921875" customWidth="1"/>
+    <col min="2" max="4" width="3.875" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="8" width="9.25" customWidth="1"/>
+    <col min="9" max="9" width="10.25" customWidth="1"/>
     <col min="10" max="10" width="6.5" customWidth="1"/>
     <col min="11" max="11" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1214,10 +1835,10 @@
       <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="10"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1225,7 +1846,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6" s="7">
         <v>1</v>
       </c>
@@ -1234,378 +1855,353 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="13"/>
+      <c r="G6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="10"/>
       <c r="I6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J6" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="7">
         <v>2</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="13"/>
+        <v>20</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="10"/>
       <c r="I7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B8" s="7">
-        <v>3</v>
-      </c>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="1"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="13"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="1"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="13"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="10"/>
       <c r="I10" s="1"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="13"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="1"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="13"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="1"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="13"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="1"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="13"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="1"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="13"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="10"/>
       <c r="I15" s="1"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="13"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="10"/>
       <c r="I16" s="1"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="13"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="10"/>
       <c r="I17" s="1"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="13"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="10"/>
       <c r="I18" s="1"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="13"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="1"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="13"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="10"/>
       <c r="I20" s="1"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="13"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="10"/>
       <c r="I21" s="1"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="13"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="10"/>
       <c r="I22" s="1"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="13"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="10"/>
       <c r="I23" s="1"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="13"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="10"/>
       <c r="I24" s="1"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="13"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="1"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="13"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="10"/>
       <c r="I26" s="1"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="13"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="10"/>
       <c r="I27" s="1"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="13"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="10"/>
       <c r="I28" s="1"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="13"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="10"/>
       <c r="I29" s="1"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="13"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="10"/>
       <c r="I30" s="1"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="13"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="1"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="13"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="10"/>
       <c r="I32" s="1"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="13"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="10"/>
       <c r="I33" s="1"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="13"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="10"/>
       <c r="I34" s="1"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="13"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="10"/>
       <c r="I35" s="1"/>
       <c r="J35" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
@@ -1622,6 +2218,1044 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="1.5" customWidth="1"/>
+    <col min="2" max="4" width="3.875" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="8" width="9.25" customWidth="1"/>
+    <col min="9" max="9" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="6.5" customWidth="1"/>
+    <col min="11" max="11" width="5.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="7">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="7"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="7"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="1.5" customWidth="1"/>
+    <col min="2" max="4" width="3.875" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="8" width="9.25" customWidth="1"/>
+    <col min="9" max="9" width="10.25" customWidth="1"/>
+    <col min="10" max="10" width="6.5" customWidth="1"/>
+    <col min="11" max="11" width="5.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" s="7">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" s="7">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" s="7">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" s="7">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B12" s="7">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B13" s="7">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B14" s="7">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B15" s="7">
+        <v>10</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B16" s="7">
+        <v>11</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B17" s="7">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B18" s="7">
+        <v>13</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B19" s="7">
+        <v>14</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B20" s="7">
+        <v>15</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B21" s="7">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.4">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/3.勤怠管理アプリ/05_内部仕様書/テーブル定義書/テーブル定義書(〇〇テーブル).xlsx
+++ b/3.勤怠管理アプリ/05_内部仕様書/テーブル定義書/テーブル定義書(〇〇テーブル).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\worktime\3.勤怠管理アプリ\05_内部仕様書\テーブル定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Downloads\戦略研修\0220アプリ開発演習\SourceTree\3.勤怠管理アプリ\05_内部仕様書\テーブル定義書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="96">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -223,10 +223,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>社員番号</t>
     <rPh sb="0" eb="4">
       <t>シャインバンゴウ</t>
@@ -234,16 +230,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>社員識別番号</t>
-    <rPh sb="0" eb="4">
-      <t>シャインシキベツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>申請情報番号</t>
     <rPh sb="0" eb="2">
       <t>シンセイ</t>
@@ -282,10 +268,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>year_month</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -325,10 +307,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>apply_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -382,27 +360,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VARCHAR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>work_finish</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>退勤時刻</t>
-    <rPh sb="0" eb="2">
-      <t>タイキン</t>
+    <t>over_start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残業開始時刻</t>
+    <rPh sb="0" eb="2">
+      <t>ザンギョウ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>ジコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>退勤した時刻</t>
-    <rPh sb="0" eb="2">
-      <t>タイキン</t>
+      <t>カイシ</t>
     </rPh>
     <rPh sb="4" eb="6">
       <t>ジコク</t>
@@ -410,23 +381,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>over_start</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>残業開始時刻</t>
-    <rPh sb="0" eb="2">
-      <t>ザンギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>残業を開始した時刻</t>
     <rPh sb="0" eb="2">
       <t>ザンギョウ</t>
@@ -441,19 +395,6 @@
   </si>
   <si>
     <t>over_finish</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休憩残業終了時刻</t>
-    <rPh sb="0" eb="2">
-      <t>キュウケイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ザンギョウ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>シュウリョウジコク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -546,7 +487,211 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>申請した日</t>
+    <t>rest1_start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rest2_start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rest1_finish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rest2_finish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rest3_start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rest3_finish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩1開始時刻</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩1終了時刻</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シュウリョウジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩1を開始した時刻</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩1を終了した時刻</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩2開始時刻</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩2終了時刻</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シュウリョウジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩3開始時刻</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩3終了時刻</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シュウリョウジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩2を開始した時刻</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩2を終了した時刻</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩3を開始した時刻</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>休憩3を終了した時刻</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残業終了時刻</t>
+    <rPh sb="0" eb="2">
+      <t>ザンギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>シュウリョウジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申請した日(FK)</t>
     <rPh sb="0" eb="2">
       <t>シンセイ</t>
     </rPh>
@@ -556,173 +701,46 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>rest1_start</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rest2_start</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rest1_finish</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rest2_finish</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rest3_start</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rest3_finish</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休憩1開始時刻</t>
-    <rPh sb="0" eb="2">
-      <t>キュウケイ</t>
+    <t>勤務を終了した時刻</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
       <t>ジコク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>休憩1終了時刻</t>
-    <rPh sb="0" eb="2">
-      <t>キュウケイ</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>シュウリョウジコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休憩1を開始した時刻</t>
-    <rPh sb="0" eb="2">
-      <t>キュウケイ</t>
+    <t>勤務終了時刻</t>
+    <rPh sb="0" eb="4">
+      <t>キンムシュウリョウ</t>
     </rPh>
     <rPh sb="4" eb="6">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
       <t>ジコク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>休憩1を終了した時刻</t>
-    <rPh sb="0" eb="2">
-      <t>キュウケイ</t>
+    <t>INTEGER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8桁</t>
+    <rPh sb="1" eb="2">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員識別番号(FK)</t>
+    <rPh sb="0" eb="4">
+      <t>シャインシキベツ</t>
     </rPh>
     <rPh sb="4" eb="6">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休憩2開始時刻</t>
-    <rPh sb="0" eb="2">
-      <t>キュウケイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休憩2終了時刻</t>
-    <rPh sb="0" eb="2">
-      <t>キュウケイ</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>シュウリョウジコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休憩3開始時刻</t>
-    <rPh sb="0" eb="2">
-      <t>キュウケイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休憩3終了時刻</t>
-    <rPh sb="0" eb="2">
-      <t>キュウケイ</t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t>シュウリョウジコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休憩2を開始した時刻</t>
-    <rPh sb="0" eb="2">
-      <t>キュウケイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休憩2を終了した時刻</t>
-    <rPh sb="0" eb="2">
-      <t>キュウケイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休憩3を開始した時刻</t>
-    <rPh sb="0" eb="2">
-      <t>キュウケイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休憩3を終了した時刻</t>
-    <rPh sb="0" eb="2">
-      <t>キュウケイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジコク</t>
+      <t>バンゴウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -876,7 +894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -904,9 +922,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -918,6 +933,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -978,7 +1002,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1064"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1074"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1048,7 +1072,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s2058"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s2068"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1100,8 +1124,8 @@
           <xdr:rowOff>1905</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>409575</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>211455</xdr:rowOff>
         </xdr:to>
@@ -1118,7 +1142,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s3082"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s3092"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -1475,7 +1499,7 @@
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1486,11 +1510,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1505,285 +1529,255 @@
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="B38:D38"/>
     <mergeCell ref="B31:D31"/>
@@ -1791,6 +1785,36 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1835,10 +1859,10 @@
       <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1860,10 +1884,10 @@
       <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="10"/>
+      <c r="H6" s="15"/>
       <c r="I6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1883,10 +1907,10 @@
       <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1898,8 +1922,8 @@
       <c r="D8" s="7"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="1"/>
       <c r="J8" s="7"/>
     </row>
@@ -1909,8 +1933,8 @@
       <c r="D9" s="7"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="10"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="1"/>
       <c r="J9" s="7"/>
     </row>
@@ -1920,8 +1944,8 @@
       <c r="D10" s="7"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="10"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="1"/>
       <c r="J10" s="7"/>
     </row>
@@ -1931,8 +1955,8 @@
       <c r="D11" s="7"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="10"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="1"/>
       <c r="J11" s="7"/>
     </row>
@@ -1942,8 +1966,8 @@
       <c r="D12" s="7"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="10"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="1"/>
       <c r="J12" s="7"/>
     </row>
@@ -1953,8 +1977,8 @@
       <c r="D13" s="7"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="10"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="1"/>
       <c r="J13" s="7"/>
     </row>
@@ -1964,8 +1988,8 @@
       <c r="D14" s="7"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="10"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="1"/>
       <c r="J14" s="7"/>
     </row>
@@ -1975,8 +1999,8 @@
       <c r="D15" s="7"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="10"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="15"/>
       <c r="I15" s="1"/>
       <c r="J15" s="7"/>
     </row>
@@ -1986,8 +2010,8 @@
       <c r="D16" s="7"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="10"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="1"/>
       <c r="J16" s="7"/>
     </row>
@@ -1997,8 +2021,8 @@
       <c r="D17" s="7"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="10"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="1"/>
       <c r="J17" s="7"/>
     </row>
@@ -2008,8 +2032,8 @@
       <c r="D18" s="7"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="10"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="1"/>
       <c r="J18" s="7"/>
     </row>
@@ -2019,8 +2043,8 @@
       <c r="D19" s="7"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="10"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="15"/>
       <c r="I19" s="1"/>
       <c r="J19" s="7"/>
     </row>
@@ -2030,8 +2054,8 @@
       <c r="D20" s="7"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="10"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="15"/>
       <c r="I20" s="1"/>
       <c r="J20" s="7"/>
     </row>
@@ -2041,8 +2065,8 @@
       <c r="D21" s="7"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="10"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="15"/>
       <c r="I21" s="1"/>
       <c r="J21" s="7"/>
     </row>
@@ -2052,8 +2076,8 @@
       <c r="D22" s="7"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="10"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="1"/>
       <c r="J22" s="7"/>
     </row>
@@ -2063,8 +2087,8 @@
       <c r="D23" s="7"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="10"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="1"/>
       <c r="J23" s="7"/>
     </row>
@@ -2074,8 +2098,8 @@
       <c r="D24" s="7"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="10"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="1"/>
       <c r="J24" s="7"/>
     </row>
@@ -2085,8 +2109,8 @@
       <c r="D25" s="7"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="10"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="15"/>
       <c r="I25" s="1"/>
       <c r="J25" s="7"/>
     </row>
@@ -2096,8 +2120,8 @@
       <c r="D26" s="7"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="10"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="15"/>
       <c r="I26" s="1"/>
       <c r="J26" s="7"/>
     </row>
@@ -2107,8 +2131,8 @@
       <c r="D27" s="7"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="10"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="15"/>
       <c r="I27" s="1"/>
       <c r="J27" s="7"/>
     </row>
@@ -2118,8 +2142,8 @@
       <c r="D28" s="7"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="10"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="15"/>
       <c r="I28" s="1"/>
       <c r="J28" s="7"/>
     </row>
@@ -2129,8 +2153,8 @@
       <c r="D29" s="7"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="10"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="15"/>
       <c r="I29" s="1"/>
       <c r="J29" s="7"/>
     </row>
@@ -2140,8 +2164,8 @@
       <c r="D30" s="7"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="10"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="15"/>
       <c r="I30" s="1"/>
       <c r="J30" s="7"/>
     </row>
@@ -2151,8 +2175,8 @@
       <c r="D31" s="7"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="10"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="15"/>
       <c r="I31" s="1"/>
       <c r="J31" s="7"/>
     </row>
@@ -2162,8 +2186,8 @@
       <c r="D32" s="7"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="10"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="15"/>
       <c r="I32" s="1"/>
       <c r="J32" s="7"/>
     </row>
@@ -2173,8 +2197,8 @@
       <c r="D33" s="7"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="10"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="15"/>
       <c r="I33" s="1"/>
       <c r="J33" s="7"/>
     </row>
@@ -2184,8 +2208,8 @@
       <c r="D34" s="7"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="10"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="15"/>
       <c r="I34" s="1"/>
       <c r="J34" s="7"/>
     </row>
@@ -2195,13 +2219,28 @@
       <c r="D35" s="7"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="10"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="15"/>
       <c r="I35" s="1"/>
       <c r="J35" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
@@ -2218,21 +2257,6 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2246,8 +2270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2279,10 +2303,10 @@
       <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
@@ -2304,12 +2328,12 @@
       <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="10"/>
+      <c r="G6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="15"/>
       <c r="I6" s="1" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="J6" s="7"/>
     </row>
@@ -2318,21 +2342,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="15"/>
       <c r="I7" s="1" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="J7" s="7"/>
     </row>
@@ -2343,36 +2365,40 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="H8" s="9"/>
       <c r="I8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="7"/>
+      <c r="B9" s="7">
+        <v>4</v>
+      </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="15"/>
       <c r="I9" s="1" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="J9" s="7"/>
     </row>
@@ -2382,8 +2408,8 @@
       <c r="D10" s="7"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="10"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="1"/>
       <c r="J10" s="7"/>
     </row>
@@ -2393,8 +2419,8 @@
       <c r="D11" s="7"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="10"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="1"/>
       <c r="J11" s="7"/>
     </row>
@@ -2404,8 +2430,8 @@
       <c r="D12" s="7"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="10"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="1"/>
       <c r="J12" s="7"/>
     </row>
@@ -2415,8 +2441,8 @@
       <c r="D13" s="7"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="10"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="1"/>
       <c r="J13" s="7"/>
     </row>
@@ -2426,8 +2452,8 @@
       <c r="D14" s="7"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="10"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="1"/>
       <c r="J14" s="7"/>
     </row>
@@ -2437,8 +2463,8 @@
       <c r="D15" s="7"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="10"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="15"/>
       <c r="I15" s="1"/>
       <c r="J15" s="7"/>
     </row>
@@ -2448,8 +2474,8 @@
       <c r="D16" s="7"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="10"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="1"/>
       <c r="J16" s="7"/>
     </row>
@@ -2459,8 +2485,8 @@
       <c r="D17" s="7"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="10"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="1"/>
       <c r="J17" s="7"/>
     </row>
@@ -2470,8 +2496,8 @@
       <c r="D18" s="7"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="10"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="15"/>
       <c r="I18" s="1"/>
       <c r="J18" s="7"/>
     </row>
@@ -2481,8 +2507,8 @@
       <c r="D19" s="7"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="10"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="15"/>
       <c r="I19" s="1"/>
       <c r="J19" s="7"/>
     </row>
@@ -2492,8 +2518,8 @@
       <c r="D20" s="7"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="10"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="15"/>
       <c r="I20" s="1"/>
       <c r="J20" s="7"/>
     </row>
@@ -2503,8 +2529,8 @@
       <c r="D21" s="7"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="10"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="15"/>
       <c r="I21" s="1"/>
       <c r="J21" s="7"/>
     </row>
@@ -2514,8 +2540,8 @@
       <c r="D22" s="7"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="10"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="1"/>
       <c r="J22" s="7"/>
     </row>
@@ -2525,8 +2551,8 @@
       <c r="D23" s="7"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="10"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="1"/>
       <c r="J23" s="7"/>
     </row>
@@ -2536,8 +2562,8 @@
       <c r="D24" s="7"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="10"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="1"/>
       <c r="J24" s="7"/>
     </row>
@@ -2547,8 +2573,8 @@
       <c r="D25" s="7"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="10"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="15"/>
       <c r="I25" s="1"/>
       <c r="J25" s="7"/>
     </row>
@@ -2558,8 +2584,8 @@
       <c r="D26" s="7"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="10"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="15"/>
       <c r="I26" s="1"/>
       <c r="J26" s="7"/>
     </row>
@@ -2569,8 +2595,8 @@
       <c r="D27" s="7"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="10"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="15"/>
       <c r="I27" s="1"/>
       <c r="J27" s="7"/>
     </row>
@@ -2580,8 +2606,8 @@
       <c r="D28" s="7"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="10"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="15"/>
       <c r="I28" s="1"/>
       <c r="J28" s="7"/>
     </row>
@@ -2591,8 +2617,8 @@
       <c r="D29" s="7"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="10"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="15"/>
       <c r="I29" s="1"/>
       <c r="J29" s="7"/>
     </row>
@@ -2602,8 +2628,8 @@
       <c r="D30" s="7"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="10"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="15"/>
       <c r="I30" s="1"/>
       <c r="J30" s="7"/>
     </row>
@@ -2613,8 +2639,8 @@
       <c r="D31" s="7"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="10"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="15"/>
       <c r="I31" s="1"/>
       <c r="J31" s="7"/>
     </row>
@@ -2624,8 +2650,8 @@
       <c r="D32" s="7"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="10"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="15"/>
       <c r="I32" s="1"/>
       <c r="J32" s="7"/>
     </row>
@@ -2635,8 +2661,8 @@
       <c r="D33" s="7"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="10"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="15"/>
       <c r="I33" s="1"/>
       <c r="J33" s="7"/>
     </row>
@@ -2646,8 +2672,8 @@
       <c r="D34" s="7"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="10"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="15"/>
       <c r="I34" s="1"/>
       <c r="J34" s="7"/>
     </row>
@@ -2657,13 +2683,36 @@
       <c r="D35" s="7"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="10"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="15"/>
       <c r="I35" s="1"/>
       <c r="J35" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="30">
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G30:H30"/>
@@ -2671,30 +2720,6 @@
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2708,8 +2733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B21"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2717,7 +2742,7 @@
     <col min="1" max="1" width="1.5" customWidth="1"/>
     <col min="2" max="4" width="3.875" customWidth="1"/>
     <col min="5" max="5" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
     <col min="7" max="8" width="9.25" customWidth="1"/>
     <col min="9" max="9" width="10.25" customWidth="1"/>
     <col min="10" max="10" width="6.5" customWidth="1"/>
@@ -2741,10 +2766,10 @@
       <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="2" t="s">
         <v>13</v>
       </c>
@@ -2761,42 +2786,38 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="15"/>
       <c r="I6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="7">
-        <v>8</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B7" s="7">
         <v>2</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
-        <v>46</v>
-      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="10"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J7" s="7"/>
     </row>
@@ -2807,19 +2828,21 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="H8" s="9"/>
       <c r="I8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="J8" s="7">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B9" s="7">
@@ -2828,19 +2851,21 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="10"/>
+        <v>62</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="J9" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B10" s="7">
@@ -2849,19 +2874,21 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="10"/>
+        <v>63</v>
+      </c>
+      <c r="H10" s="9"/>
       <c r="I10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="J10" s="7">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B11" s="7">
@@ -2870,17 +2897,17 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="10"/>
+        <v>48</v>
+      </c>
+      <c r="H11" s="9"/>
       <c r="I11" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="J11" s="7"/>
     </row>
@@ -2891,17 +2918,17 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="10"/>
+        <v>91</v>
+      </c>
+      <c r="H12" s="9"/>
       <c r="I12" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="J12" s="7"/>
     </row>
@@ -2912,17 +2939,17 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="10"/>
+        <v>52</v>
+      </c>
+      <c r="H13" s="9"/>
       <c r="I13" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="J13" s="7"/>
     </row>
@@ -2933,17 +2960,17 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="H14" s="9"/>
       <c r="I14" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="J14" s="7"/>
     </row>
@@ -2954,17 +2981,17 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="10"/>
+        <v>73</v>
+      </c>
+      <c r="H15" s="9"/>
       <c r="I15" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="J15" s="7"/>
     </row>
@@ -2975,17 +3002,17 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="10"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="J16" s="7"/>
     </row>
@@ -2996,17 +3023,17 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="10"/>
+        <v>79</v>
+      </c>
+      <c r="H17" s="9"/>
       <c r="I17" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="J17" s="7"/>
     </row>
@@ -3017,17 +3044,17 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="J18" s="7"/>
     </row>
@@ -3038,17 +3065,17 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="G19" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" s="10"/>
+        <v>81</v>
+      </c>
+      <c r="H19" s="9"/>
       <c r="I19" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="J19" s="7"/>
     </row>
@@ -3059,17 +3086,17 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="G20" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" s="10"/>
+        <v>82</v>
+      </c>
+      <c r="H20" s="9"/>
       <c r="I20" s="1" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="J20" s="7"/>
     </row>
@@ -3078,20 +3105,20 @@
         <v>16</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E21" s="1" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="1"/>
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
@@ -3100,8 +3127,8 @@
       <c r="D22" s="7"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="10"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="1"/>
       <c r="J22" s="7"/>
     </row>
@@ -3111,8 +3138,8 @@
       <c r="D23" s="7"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="10"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="1"/>
       <c r="J23" s="7"/>
     </row>
@@ -3122,8 +3149,8 @@
       <c r="D24" s="7"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="10"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="1"/>
       <c r="J24" s="7"/>
     </row>
@@ -3133,8 +3160,8 @@
       <c r="D25" s="7"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="10"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="15"/>
       <c r="I25" s="1"/>
       <c r="J25" s="7"/>
     </row>
@@ -3144,8 +3171,8 @@
       <c r="D26" s="7"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="10"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="15"/>
       <c r="I26" s="1"/>
       <c r="J26" s="7"/>
     </row>
@@ -3155,8 +3182,8 @@
       <c r="D27" s="7"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="10"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="15"/>
       <c r="I27" s="1"/>
       <c r="J27" s="7"/>
     </row>
@@ -3166,8 +3193,8 @@
       <c r="D28" s="7"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="10"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="15"/>
       <c r="I28" s="1"/>
       <c r="J28" s="7"/>
     </row>
@@ -3177,8 +3204,8 @@
       <c r="D29" s="7"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="10"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="15"/>
       <c r="I29" s="1"/>
       <c r="J29" s="7"/>
     </row>
@@ -3188,8 +3215,8 @@
       <c r="D30" s="7"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="10"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="15"/>
       <c r="I30" s="1"/>
       <c r="J30" s="7"/>
     </row>
@@ -3199,8 +3226,8 @@
       <c r="D31" s="7"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="10"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="15"/>
       <c r="I31" s="1"/>
       <c r="J31" s="7"/>
     </row>
@@ -3210,8 +3237,8 @@
       <c r="D32" s="7"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="10"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="15"/>
       <c r="I32" s="1"/>
       <c r="J32" s="7"/>
     </row>
@@ -3220,13 +3247,21 @@
       <c r="D33" s="7"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="10"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="15"/>
       <c r="I33" s="1"/>
       <c r="J33" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="15">
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
@@ -3234,28 +3269,6 @@
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
